--- a/Results/3/Output_Top_10.xlsx
+++ b/Results/3/Output_Top_10.xlsx
@@ -456,12 +456,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>reactionTime (ms)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>strength</t>
+          <t>strength (g⋅kg^(−α))</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
         <v>19.33</v>
       </c>
       <c r="F2" t="n">
-        <v>48.67</v>
+        <v>781</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>21</v>
       </c>
       <c r="F3" t="n">
-        <v>47</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>26.67</v>
       </c>
       <c r="F4" t="n">
-        <v>59</v>
+        <v>945.33</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>12</v>
       </c>
       <c r="F5" t="n">
-        <v>70</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>75</v>
+        <v>1204.75</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>94.5</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>92</v>
+        <v>1474.5</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>75</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>28</v>
       </c>
       <c r="F10" t="n">
-        <v>88</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>52</v>
+        <v>832.5</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="n">
-        <v>60.5</v>
+        <v>972.5</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>48.5</v>
+        <v>778</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="n">
-        <v>49</v>
+        <v>786</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="n">
-        <v>49.67</v>
+        <v>800</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>28</v>
       </c>
       <c r="F16" t="n">
-        <v>40</v>
+        <v>645.33</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>80</v>
+        <v>1282.5</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>21</v>
       </c>
       <c r="F18" t="n">
-        <v>103</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>119</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>19.33</v>
       </c>
       <c r="F20" t="n">
-        <v>57.67</v>
+        <v>873</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>15.5</v>
       </c>
       <c r="F21" t="n">
-        <v>58</v>
+        <v>879.25</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>14</v>
       </c>
       <c r="F22" t="n">
-        <v>52</v>
+        <v>789</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>92.5</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>10.67</v>
       </c>
       <c r="F24" t="n">
-        <v>94.33</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>14</v>
       </c>
       <c r="F25" t="n">
-        <v>94</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>18</v>
       </c>
       <c r="F26" t="n">
-        <v>142</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>130</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>23.5</v>
       </c>
       <c r="F28" t="n">
-        <v>107.25</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>12.5</v>
       </c>
       <c r="F29" t="n">
-        <v>65</v>
+        <v>984.25</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>28</v>
       </c>
       <c r="F30" t="n">
-        <v>85</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>13</v>
       </c>
       <c r="F31" t="n">
-        <v>59.25</v>
+        <v>896.75</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>12</v>
       </c>
       <c r="F32" t="n">
-        <v>72.5</v>
+        <v>1098.5</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>14</v>
       </c>
       <c r="F33" t="n">
-        <v>53</v>
+        <v>810</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>12</v>
       </c>
       <c r="F34" t="n">
-        <v>132</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>20</v>
       </c>
       <c r="F35" t="n">
-        <v>130.5</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>14.5</v>
       </c>
       <c r="F36" t="n">
-        <v>119.75</v>
+        <v>1808.75</v>
       </c>
     </row>
   </sheetData>
